--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H2">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.9392746769343</v>
+        <v>2.856403666666667</v>
       </c>
       <c r="N2">
-        <v>6.9392746769343</v>
+        <v>8.569210999999999</v>
       </c>
       <c r="O2">
-        <v>0.7609649880392343</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="P2">
-        <v>0.7609649880392343</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="Q2">
-        <v>82.54875444207578</v>
+        <v>59.82543625237822</v>
       </c>
       <c r="R2">
-        <v>82.54875444207578</v>
+        <v>538.428926271404</v>
       </c>
       <c r="S2">
-        <v>0.4715096436059357</v>
+        <v>0.1744353718241879</v>
       </c>
       <c r="T2">
-        <v>0.4715096436059357</v>
+        <v>0.1744353718241879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H3">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.17977125291145</v>
+        <v>7.000300666666668</v>
       </c>
       <c r="N3">
-        <v>2.17977125291145</v>
+        <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.2390350119607656</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="P3">
-        <v>0.2390350119607656</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="Q3">
-        <v>25.93028958697707</v>
+        <v>146.6165465926143</v>
       </c>
       <c r="R3">
-        <v>25.93028958697707</v>
+        <v>1319.548919333528</v>
       </c>
       <c r="S3">
-        <v>0.1481110367368835</v>
+        <v>0.4274956176260956</v>
       </c>
       <c r="T3">
-        <v>0.1481110367368835</v>
+        <v>0.4274956176260956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.31320667034573</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H4">
-        <v>2.31320667034573</v>
+        <v>62.832964</v>
       </c>
       <c r="I4">
-        <v>0.1204880273293012</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J4">
-        <v>0.1204880273293012</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.9392746769343</v>
+        <v>2.255294666666666</v>
       </c>
       <c r="N4">
-        <v>6.9392746769343</v>
+        <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.7609649880392343</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="P4">
-        <v>0.7609649880392343</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="Q4">
-        <v>16.05197647004563</v>
+        <v>47.23561620001956</v>
       </c>
       <c r="R4">
-        <v>16.05197647004563</v>
+        <v>425.120545800176</v>
       </c>
       <c r="S4">
-        <v>0.09168717027551265</v>
+        <v>0.1377267395165463</v>
       </c>
       <c r="T4">
-        <v>0.09168717027551265</v>
+        <v>0.1377267395165463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H5">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.17977125291145</v>
+        <v>2.856403666666667</v>
       </c>
       <c r="N5">
-        <v>2.17977125291145</v>
+        <v>8.569210999999999</v>
       </c>
       <c r="O5">
-        <v>0.2390350119607656</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="P5">
-        <v>0.2390350119607656</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="Q5">
-        <v>5.042261402062636</v>
+        <v>6.647121738547112</v>
       </c>
       <c r="R5">
-        <v>5.042261402062636</v>
+        <v>59.824095646924</v>
       </c>
       <c r="S5">
-        <v>0.02880085705378858</v>
+        <v>0.01938127366314048</v>
       </c>
       <c r="T5">
-        <v>0.02880085705378858</v>
+        <v>0.01938127366314047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.98956024348008</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H6">
-        <v>4.98956024348008</v>
+        <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J6">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.9392746769343</v>
+        <v>7.000300666666668</v>
       </c>
       <c r="N6">
-        <v>6.9392746769343</v>
+        <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.7609649880392343</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="P6">
-        <v>0.7609649880392343</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="Q6">
-        <v>34.62392904661946</v>
+        <v>16.29036234646312</v>
       </c>
       <c r="R6">
-        <v>34.62392904661946</v>
+        <v>146.613261118168</v>
       </c>
       <c r="S6">
-        <v>0.1977681741577859</v>
+        <v>0.04749844867103802</v>
       </c>
       <c r="T6">
-        <v>0.1977681741577859</v>
+        <v>0.04749844867103801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.98956024348008</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H7">
-        <v>4.98956024348008</v>
+        <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J7">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.17977125291145</v>
+        <v>2.255294666666666</v>
       </c>
       <c r="N7">
-        <v>2.17977125291145</v>
+        <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.2390350119607656</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="P7">
-        <v>0.2390350119607656</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="Q7">
-        <v>10.87609998340773</v>
+        <v>5.248284190561778</v>
       </c>
       <c r="R7">
-        <v>10.87609998340773</v>
+        <v>47.234557715056</v>
       </c>
       <c r="S7">
-        <v>0.0621231181700935</v>
+        <v>0.01530262813893409</v>
       </c>
       <c r="T7">
-        <v>0.0621231181700935</v>
+        <v>0.01530262813893409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.044818</v>
+      </c>
+      <c r="H8">
+        <v>15.134454</v>
+      </c>
+      <c r="I8">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="J8">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.856403666666667</v>
+      </c>
+      <c r="N8">
+        <v>8.569210999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.235832554697756</v>
+      </c>
+      <c r="P8">
+        <v>0.235832554697756</v>
+      </c>
+      <c r="Q8">
+        <v>14.410036632866</v>
+      </c>
+      <c r="R8">
+        <v>129.690329695794</v>
+      </c>
+      <c r="S8">
+        <v>0.04201590921042763</v>
+      </c>
+      <c r="T8">
+        <v>0.04201590921042763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.044818</v>
+      </c>
+      <c r="H9">
+        <v>15.134454</v>
+      </c>
+      <c r="I9">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="J9">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.000300666666668</v>
+      </c>
+      <c r="N9">
+        <v>21.000902</v>
+      </c>
+      <c r="O9">
+        <v>0.5779641054021444</v>
+      </c>
+      <c r="P9">
+        <v>0.5779641054021444</v>
+      </c>
+      <c r="Q9">
+        <v>35.31524280861201</v>
+      </c>
+      <c r="R9">
+        <v>317.8371852775081</v>
+      </c>
+      <c r="S9">
+        <v>0.1029700391050108</v>
+      </c>
+      <c r="T9">
+        <v>0.1029700391050108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.044818</v>
+      </c>
+      <c r="H10">
+        <v>15.134454</v>
+      </c>
+      <c r="I10">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="J10">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.255294666666666</v>
+      </c>
+      <c r="N10">
+        <v>6.765884</v>
+      </c>
+      <c r="O10">
+        <v>0.1862033399000996</v>
+      </c>
+      <c r="P10">
+        <v>0.1862033399000996</v>
+      </c>
+      <c r="Q10">
+        <v>11.377551129704</v>
+      </c>
+      <c r="R10">
+        <v>102.397960167336</v>
+      </c>
+      <c r="S10">
+        <v>0.03317397224461913</v>
+      </c>
+      <c r="T10">
+        <v>0.03317397224461913</v>
       </c>
     </row>
   </sheetData>
